--- a/biology/Médecine/Posture/Posture.xlsx
+++ b/biology/Médecine/Posture/Posture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, la posture est le processus actif d'élaboration et de maintien de la configuration des différents segments du corps dans l'espace.
 Elle exprime la manière dont l'organisme affronte les stimulations du monde extérieur et se prépare à y réagir.
@@ -512,7 +524,9 @@
           <t>En posturologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En posturologie, la notion de posture est différente de celle de position.
 Elle est le fruit d'une activité musculaire à la fois tonique et phasique[Quoi ?].
